--- a/iselUssSyncV2/OutputWSL/20220517_1200_D60L474W90Q8.8U0.17H64.2G2_S_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1200_D60L474W90Q8.8U0.17H64.2G2_S_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>-106</v>
       </c>
       <c r="E2" s="0">
-        <v>65.63718253968257</v>
+        <v>66.695008626639094</v>
       </c>
       <c r="F2" s="0">
-        <v>65.653888888888929</v>
+        <v>66.709462011418566</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>-106</v>
       </c>
       <c r="E3" s="0">
-        <v>65.964940239043855</v>
+        <v>66.977091633466159</v>
       </c>
       <c r="F3" s="0">
-        <v>67.47804780876497</v>
+        <v>68.213705179282897</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>-106</v>
       </c>
       <c r="E4" s="0">
-        <v>65.106984126984173</v>
+        <v>64.47484126984132</v>
       </c>
       <c r="F4" s="0">
-        <v>68.866706349206382</v>
+        <v>67.34801587301591</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>-106</v>
       </c>
       <c r="E5" s="0">
-        <v>64.538611111111067</v>
+        <v>63.859288401947722</v>
       </c>
       <c r="F5" s="0">
-        <v>69.318452380952408</v>
+        <v>67.988213337127704</v>
       </c>
     </row>
     <row r="6">
@@ -202,9 +202,11 @@
         <v>-106</v>
       </c>
       <c r="E6" s="0">
-        <v>63.111673306772957</v>
-      </c>
-      <c r="F6" s="0"/>
+        <v>62.310601878201531</v>
+      </c>
+      <c r="F6" s="0">
+        <v>67.291860178334289</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
@@ -220,9 +222,11 @@
         <v>-106</v>
       </c>
       <c r="E7" s="0">
-        <v>60.525019920318769</v>
-      </c>
-      <c r="F7" s="0"/>
+        <v>60.327440555239406</v>
+      </c>
+      <c r="F7" s="0">
+        <v>67.982972870423055</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -238,10 +242,10 @@
         <v>-106</v>
       </c>
       <c r="E8" s="0">
-        <v>55.860873015873025</v>
+        <v>55.660357142857151</v>
       </c>
       <c r="F8" s="0">
-        <v>69.201309523809513</v>
+        <v>67.301309523809508</v>
       </c>
     </row>
     <row r="9">
@@ -258,10 +262,10 @@
         <v>-106</v>
       </c>
       <c r="E9" s="0">
-        <v>53.551274900398404</v>
+        <v>52.725282836906338</v>
       </c>
       <c r="F9" s="0">
-        <v>66.033545816733053</v>
+        <v>63.633545816733054</v>
       </c>
     </row>
     <row r="10">
@@ -278,10 +282,10 @@
         <v>-106</v>
       </c>
       <c r="E10" s="0">
-        <v>51.822738095238094</v>
+        <v>50.744172358186297</v>
       </c>
       <c r="F10" s="0">
-        <v>48.775198412698415</v>
+        <v>46.078545026244235</v>
       </c>
     </row>
     <row r="11">
@@ -298,10 +302,10 @@
         <v>-106</v>
       </c>
       <c r="E11" s="0">
-        <v>50.702936507936521</v>
+        <v>49.635048061721385</v>
       </c>
       <c r="F11" s="0">
-        <v>48.343809523809512</v>
+        <v>45.654407133371265</v>
       </c>
     </row>
     <row r="12">
@@ -318,10 +322,10 @@
         <v>-106</v>
       </c>
       <c r="E12" s="0">
-        <v>52.025317460317481</v>
+        <v>51.848823436413099</v>
       </c>
       <c r="F12" s="0">
-        <v>48.12063492063492</v>
+        <v>45.467009422626951</v>
       </c>
     </row>
     <row r="13">
@@ -338,10 +342,10 @@
         <v>-106</v>
       </c>
       <c r="E13" s="0">
-        <v>52.526785714285715</v>
+        <v>51.451071428571431</v>
       </c>
       <c r="F13" s="0">
-        <v>48.302698412698426</v>
+        <v>45.608809523809541</v>
       </c>
     </row>
     <row r="14">
@@ -358,10 +362,10 @@
         <v>-106</v>
       </c>
       <c r="E14" s="0">
-        <v>53.742619047619044</v>
+        <v>52.696682792638967</v>
       </c>
       <c r="F14" s="0">
-        <v>48.27349206349205</v>
+        <v>45.606081704926311</v>
       </c>
     </row>
     <row r="15">
@@ -378,10 +382,10 @@
         <v>-106</v>
       </c>
       <c r="E15" s="0">
-        <v>54.63845238095238</v>
+        <v>53.587261904761903</v>
       </c>
       <c r="F15" s="0">
-        <v>48.475634920634917</v>
+        <v>45.81428571428571</v>
       </c>
     </row>
     <row r="16">
@@ -398,10 +402,10 @@
         <v>-106</v>
       </c>
       <c r="E16" s="0">
-        <v>54.415000000000013</v>
+        <v>53.382182539682553</v>
       </c>
       <c r="F16" s="0">
-        <v>48.677579365079353</v>
+        <v>46.663412698412685</v>
       </c>
     </row>
     <row r="17">
@@ -418,10 +422,10 @@
         <v>-106</v>
       </c>
       <c r="E17" s="0">
-        <v>52.236031746031735</v>
+        <v>51.89115079365078</v>
       </c>
       <c r="F17" s="0">
-        <v>49.76666666666668</v>
+        <v>47.201626984126996</v>
       </c>
     </row>
     <row r="18">
@@ -438,10 +442,10 @@
         <v>-106</v>
       </c>
       <c r="E18" s="0">
-        <v>47.923055555555557</v>
+        <v>46.865317460317463</v>
       </c>
       <c r="F18" s="0">
-        <v>49.942539682539667</v>
+        <v>47.261388888888874</v>
       </c>
     </row>
     <row r="19">
@@ -458,10 +462,10 @@
         <v>-106</v>
       </c>
       <c r="E19" s="0">
-        <v>46.219880952380947</v>
+        <v>45.179722222222217</v>
       </c>
       <c r="F19" s="0">
-        <v>50.209404761904764</v>
+        <v>47.552142857142854</v>
       </c>
     </row>
     <row r="20">
@@ -478,10 +482,10 @@
         <v>-106</v>
       </c>
       <c r="E20" s="0">
-        <v>49.494007936507934</v>
+        <v>48.406944444444441</v>
       </c>
       <c r="F20" s="0">
-        <v>50.353095238095207</v>
+        <v>47.647817460317427</v>
       </c>
     </row>
     <row r="21">
@@ -498,10 +502,10 @@
         <v>-106</v>
       </c>
       <c r="E21" s="0">
-        <v>51.02394422310757</v>
+        <v>49.976772908366534</v>
       </c>
       <c r="F21" s="0">
-        <v>50.46011952191234</v>
+        <v>47.818525896414336</v>
       </c>
     </row>
     <row r="22">
@@ -518,10 +522,10 @@
         <v>-106</v>
       </c>
       <c r="E22" s="0">
-        <v>48.913095238095217</v>
+        <v>47.435714285714262</v>
       </c>
       <c r="F22" s="0">
-        <v>50.486309523809538</v>
+        <v>48.204880952380968</v>
       </c>
     </row>
     <row r="23">
@@ -538,10 +542,10 @@
         <v>-106</v>
       </c>
       <c r="E23" s="0">
-        <v>48.858293650793648</v>
+        <v>47.341241857964967</v>
       </c>
       <c r="F23" s="0">
-        <v>50.408690476190465</v>
+        <v>47.709208404477316</v>
       </c>
     </row>
     <row r="24">
@@ -558,10 +562,10 @@
         <v>-106</v>
       </c>
       <c r="E24" s="0">
-        <v>49.339601593625488</v>
+        <v>47.854262948207165</v>
       </c>
       <c r="F24" s="0">
-        <v>50.845498007968132</v>
+        <v>47.724701195219126</v>
       </c>
     </row>
     <row r="25">
@@ -578,10 +582,10 @@
         <v>-106</v>
       </c>
       <c r="E25" s="0">
-        <v>49.342988047808753</v>
+        <v>48.508265825586527</v>
       </c>
       <c r="F25" s="0">
-        <v>50.771792828685264</v>
+        <v>48.4539753683678</v>
       </c>
     </row>
     <row r="26">
@@ -598,10 +602,10 @@
         <v>-106</v>
       </c>
       <c r="E26" s="0">
-        <v>49.017500000000013</v>
+        <v>48.389292828685271</v>
       </c>
       <c r="F26" s="0">
-        <v>50.922738095238095</v>
+        <v>49.237120565357614</v>
       </c>
     </row>
     <row r="27">
@@ -618,10 +622,10 @@
         <v>-106</v>
       </c>
       <c r="E27" s="0">
-        <v>49.678964143426285</v>
+        <v>49.000358565737038</v>
       </c>
       <c r="F27" s="0">
-        <v>51.406852589641439</v>
+        <v>49.91513944223108</v>
       </c>
     </row>
     <row r="28">
@@ -638,10 +642,10 @@
         <v>-106</v>
       </c>
       <c r="E28" s="0">
-        <v>48.91800796812749</v>
+        <v>48.762769872889393</v>
       </c>
       <c r="F28" s="0">
-        <v>50.562509960159346</v>
+        <v>49.156716309365692</v>
       </c>
     </row>
     <row r="29">
@@ -658,10 +662,10 @@
         <v>-106</v>
       </c>
       <c r="E29" s="0">
-        <v>49.482788844621517</v>
+        <v>48.823225352558026</v>
       </c>
       <c r="F29" s="0">
-        <v>50.881155378486064</v>
+        <v>49.417385537216227</v>
       </c>
     </row>
     <row r="30">
@@ -678,10 +682,10 @@
         <v>-106</v>
       </c>
       <c r="E30" s="0">
-        <v>49.711474103585651</v>
+        <v>49.524569341680888</v>
       </c>
       <c r="F30" s="0">
-        <v>50.61223107569721</v>
+        <v>50.019175520141651</v>
       </c>
     </row>
   </sheetData>
